--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Makowski.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Makowski.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,130 +463,513 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:20:12.78</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.48859606482</v>
       </c>
       <c r="B2" t="n">
+        <v>2919.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.528912135532924</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45687.51163310185</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4909.7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.455790894372123</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45687.52817245371</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6338.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.263271263667514</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45687.48859259259</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2919</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.196677446365358</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45687.51163194444</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4909.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.333036150251117</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45687.52526388889</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6087.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.03548356464931</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.59256226852</v>
+      </c>
+      <c r="B8" t="n">
+        <v>597.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.88744705063956</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59326018518</v>
+      </c>
+      <c r="B9" t="n">
+        <v>657.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.255973236901418</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59391296296</v>
+      </c>
+      <c r="B10" t="n">
+        <v>714</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.522208963121686</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59255763889</v>
+      </c>
+      <c r="B11" t="n">
+        <v>596.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.222425665174211</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59325671296</v>
+      </c>
+      <c r="B12" t="n">
+        <v>657.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.05687436035701</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59384467592</v>
+      </c>
+      <c r="B13" t="n">
+        <v>708.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.041268399783544</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59737013889</v>
+      </c>
+      <c r="B14" t="n">
         <v>1012.7</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C14" t="n">
         <v>14.65</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D14" t="n">
         <v>3.913507495607649</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:24:34.78</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.6004025463</v>
+      </c>
+      <c r="B15" t="n">
         <v>1274.7</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C15" t="n">
         <v>11.85</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D15" t="n">
         <v>3.472379582268853</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:51:01.28</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2861.2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.698720795767648</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:24:34.58</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60135856482</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1357.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.089766706739152</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.60040023148</v>
+      </c>
+      <c r="B17" t="n">
         <v>1274.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C17" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D17" t="n">
         <v>3.12288546562195</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:51:00.98</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2860.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.124091540064131</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 15:00:57.48</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3457.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.053831475121636</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.60135625</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1357.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.773679750306264</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.60433310185</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1614.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.83167886734009</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
